--- a/source_plates/221024_arpae_combined_sp_updated.xlsx
+++ b/source_plates/221024_arpae_combined_sp_updated.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>E1,E2,E3</t>
+          <t>E1,E2,E3,E4</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20.0,20.0,42.5,</t>
+          <t>20.0,20.0,42.5,60.0,</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>56.1,</t>
+          <t>51.300000000000004,</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>39.6,</t>
+          <t>25.199999999999996,</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.7999999999999972,60.0,</t>
+          <t>21.0,60.0,</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>54.75,0.0,</t>
+          <t>18.75,36.0,</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>42.5,34.0,</t>
+          <t>18.5,59.0,</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>61.0,0.25,52.0,</t>
+          <t>18.1,34.15,53.0,</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>50.15,</t>
+          <t>58.375,</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>61.225,</t>
+          <t>54.0,</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>42.0,</t>
+          <t>48.0,</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-685.05,2000.0,</t>
+          <t>1254.95,2000.0,</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1992.5,</t>
+          <t>52.5,</t>
         </is>
       </c>
     </row>
